--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0">data!$B$2:$BA$2</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">'Gamma=0.99'!$B$22:$BA$22</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Gamma=0.99'!$B$22:$BC$22</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Gamma=1'!$B$9:$BA$9</definedName>
     <definedName name="solver_adj" localSheetId="4">Sheet2!$B$4:$BA$4</definedName>
     <definedName name="solver_cvg" localSheetId="0">0.0001</definedName>
@@ -46,7 +46,7 @@
     <definedName name="solver_lhs0" localSheetId="3" hidden="1">'Gamma=0.99'!$C$30:$C$41</definedName>
     <definedName name="solver_lhs0" localSheetId="1" hidden="1">'Gamma=1'!$C$30:$C$41</definedName>
     <definedName name="solver_lhs1" localSheetId="0">data!$B$2:$BA$2</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Gamma=0.99'!$B$22:$BA$22</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Gamma=0.99'!$B$22:$BC$22</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Gamma=1'!$B$9:$BA$9</definedName>
     <definedName name="solver_lhs1" localSheetId="4">Sheet2!$B$4:$BA$4</definedName>
     <definedName name="solver_lhs2" localSheetId="0">data!$C$26:$C$37</definedName>
@@ -158,7 +158,7 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="4">3</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="149">
   <si>
     <t xml:space="preserve">x0(0) </t>
   </si>
@@ -25880,10 +25880,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:BA41"/>
+  <dimension ref="A3:BC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25901,7 +25901,7 @@
     <col min="24" max="1023" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -25948,118 +25948,124 @@
         <v>68</v>
       </c>
       <c r="Q3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R3" t="s">
         <v>69</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>70</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>71</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>72</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>73</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>74</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>75</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>76</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>78</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>79</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>80</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>81</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>82</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>83</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>84</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI3" t="s">
         <v>85</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AJ3" t="s">
         <v>86</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AK3" t="s">
         <v>87</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AL3" t="s">
         <v>88</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AM3" t="s">
         <v>89</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AN3" t="s">
         <v>90</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AO3" t="s">
         <v>91</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AP3" t="s">
         <v>92</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AQ3" t="s">
         <v>93</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AR3" t="s">
         <v>94</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AS3" t="s">
         <v>95</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AT3" t="s">
         <v>96</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AU3" t="s">
         <v>97</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AV3" t="s">
         <v>98</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AW3" t="s">
         <v>99</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AX3" t="s">
         <v>100</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AY3" t="s">
         <v>101</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AZ3" t="s">
         <v>102</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="BA3" t="s">
         <v>103</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BB3" t="s">
         <v>104</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BC3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>-0.178144814422</v>
       </c>
@@ -26109,11 +26115,11 @@
         <v>1</v>
       </c>
       <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
         <v>-0.22099842755400001</v>
       </c>
-      <c r="S5">
-        <v>-0.04</v>
-      </c>
       <c r="T5">
         <v>-0.04</v>
       </c>
@@ -26124,11 +26130,11 @@
         <v>-0.04</v>
       </c>
       <c r="W5">
+        <v>-0.04</v>
+      </c>
+      <c r="X5">
         <v>-0.18213990427000001</v>
       </c>
-      <c r="X5">
-        <v>-0.04</v>
-      </c>
       <c r="Y5">
         <v>-0.04</v>
       </c>
@@ -26139,11 +26145,11 @@
         <v>-0.04</v>
       </c>
       <c r="AB5">
+        <v>-0.04</v>
+      </c>
+      <c r="AC5">
         <v>-0.21850130777900001</v>
       </c>
-      <c r="AC5">
-        <v>-0.04</v>
-      </c>
       <c r="AD5">
         <v>-0.04</v>
       </c>
@@ -26154,17 +26160,17 @@
         <v>-0.04</v>
       </c>
       <c r="AG5">
+        <v>-0.04</v>
+      </c>
+      <c r="AH5">
         <v>-1</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
+        <v>-1</v>
+      </c>
+      <c r="AJ5">
         <v>-0.26479754450300003</v>
       </c>
-      <c r="AI5">
-        <v>-0.04</v>
-      </c>
-      <c r="AJ5">
-        <v>-0.04</v>
-      </c>
       <c r="AK5">
         <v>-0.04</v>
       </c>
@@ -26172,14 +26178,14 @@
         <v>-0.04</v>
       </c>
       <c r="AM5">
+        <v>-0.04</v>
+      </c>
+      <c r="AN5">
+        <v>-0.04</v>
+      </c>
+      <c r="AO5">
         <v>-0.23794379711700001</v>
       </c>
-      <c r="AN5">
-        <v>-0.04</v>
-      </c>
-      <c r="AO5">
-        <v>-0.04</v>
-      </c>
       <c r="AP5">
         <v>-0.04</v>
       </c>
@@ -26187,14 +26193,14 @@
         <v>-0.04</v>
       </c>
       <c r="AR5">
+        <v>-0.04</v>
+      </c>
+      <c r="AS5">
+        <v>-0.04</v>
+      </c>
+      <c r="AT5">
         <v>-0.27755527077100001</v>
       </c>
-      <c r="AS5">
-        <v>-0.04</v>
-      </c>
-      <c r="AT5">
-        <v>-0.04</v>
-      </c>
       <c r="AU5">
         <v>-0.04</v>
       </c>
@@ -26202,22 +26208,28 @@
         <v>-0.04</v>
       </c>
       <c r="AW5">
+        <v>-0.04</v>
+      </c>
+      <c r="AX5">
+        <v>-0.04</v>
+      </c>
+      <c r="AY5">
         <v>-0.28836411856499999</v>
       </c>
-      <c r="AX5">
-        <v>-0.04</v>
-      </c>
-      <c r="AY5">
-        <v>-0.04</v>
-      </c>
       <c r="AZ5">
         <v>-0.04</v>
       </c>
       <c r="BA5">
         <v>-0.04</v>
       </c>
+      <c r="BB5">
+        <v>-0.04</v>
+      </c>
+      <c r="BC5">
+        <v>-0.04</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -26264,118 +26276,124 @@
         <v>14</v>
       </c>
       <c r="Q7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R7" t="s">
         <v>15</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>16</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>17</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>18</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>19</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>20</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>21</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>22</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>23</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>24</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>25</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>26</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>27</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>28</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>29</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>30</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI7" t="s">
         <v>31</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AJ7" t="s">
         <v>32</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AK7" t="s">
         <v>33</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AL7" t="s">
         <v>34</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AM7" t="s">
         <v>35</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AN7" t="s">
         <v>36</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AO7" t="s">
         <v>37</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AP7" t="s">
         <v>38</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AQ7" t="s">
         <v>39</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AR7" t="s">
         <v>40</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AS7" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AT7" t="s">
         <v>42</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AU7" t="s">
         <v>43</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AV7" t="s">
         <v>44</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AW7" t="s">
         <v>45</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AX7" t="s">
         <v>46</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AY7" t="s">
         <v>47</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AZ7" t="s">
         <v>48</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="BA7" t="s">
         <v>49</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BB7" t="s">
         <v>50</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BC7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -26431,19 +26449,19 @@
         <v>0</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>-0.79200000000000004</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
-        <v>-9.9000000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>-9.9000000000000005E-2</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -26535,8 +26553,14 @@
       <c r="BA9">
         <v>0</v>
       </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -26607,19 +26631,19 @@
         <v>0</v>
       </c>
       <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
         <v>-0.79200000000000004</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
       <c r="Z10">
-        <v>-9.9000000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -26696,8 +26720,14 @@
       <c r="BA10">
         <v>0</v>
       </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -26783,19 +26813,19 @@
         <v>0</v>
       </c>
       <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
         <v>-0.79200000000000004</v>
       </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
       <c r="AE11">
-        <v>-9.9000000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -26857,8 +26887,14 @@
       <c r="BA11">
         <v>0</v>
       </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -26908,14 +26944,14 @@
         <v>-0.79200000000000004</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="R12">
+        <v>0.01</v>
+      </c>
+      <c r="S12">
         <v>-0.94473635461899996</v>
       </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
       <c r="T12">
         <v>0</v>
       </c>
@@ -26926,11 +26962,11 @@
         <v>0</v>
       </c>
       <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
         <v>-0.95445480541700001</v>
       </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
       <c r="Y12">
         <v>0</v>
       </c>
@@ -26941,11 +26977,11 @@
         <v>0</v>
       </c>
       <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
         <v>-0.94535870543099998</v>
       </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
       <c r="AD12">
         <v>0</v>
       </c>
@@ -26959,14 +26995,14 @@
         <v>0</v>
       </c>
       <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>-0.93377886810499999</v>
       </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
         <v>0</v>
       </c>
@@ -26974,14 +27010,14 @@
         <v>0</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
         <v>-0.94049535918799998</v>
       </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
       <c r="AP12">
         <v>0</v>
       </c>
@@ -26989,14 +27025,14 @@
         <v>0</v>
       </c>
       <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
         <v>-0.93058372687699997</v>
       </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
       <c r="AU12">
         <v>0</v>
       </c>
@@ -27004,22 +27040,28 @@
         <v>0</v>
       </c>
       <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
         <v>-0.81799450411899999</v>
       </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
       <c r="AZ12">
         <v>0</v>
       </c>
       <c r="BA12">
         <v>0</v>
       </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4</v>
       </c>
@@ -27072,35 +27114,35 @@
         <v>0</v>
       </c>
       <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>1</v>
-      </c>
-      <c r="S13">
-        <v>0.90100000000000002</v>
       </c>
       <c r="T13">
         <v>0.90100000000000002</v>
       </c>
       <c r="U13">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="V13">
         <v>0.20799999999999999</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1</v>
       </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
       <c r="X13">
-        <v>-9.9000000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>-9.9000000000000005E-2</v>
       </c>
       <c r="Z13">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="AA13">
         <v>-0.79200000000000004</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
       <c r="AB13">
         <v>0</v>
       </c>
@@ -27123,23 +27165,23 @@
         <v>0</v>
       </c>
       <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
         <v>-0.79200000000000004</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="AL13">
+      <c r="AN13">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
       <c r="AO13">
         <v>0</v>
       </c>
@@ -27179,8 +27221,14 @@
       <c r="BA13">
         <v>0</v>
       </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -27236,19 +27284,19 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-9.9000000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="T14">
         <v>-9.9000000000000005E-2</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
         <v>-0.79200000000000004</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
       </c>
       <c r="X14">
         <v>1</v>
@@ -27263,20 +27311,20 @@
         <v>1</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>-9.9000000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="AD14">
         <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AE14">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="AF14">
         <v>-0.79200000000000004</v>
       </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
       <c r="AG14">
         <v>0</v>
       </c>
@@ -27299,23 +27347,23 @@
         <v>0</v>
       </c>
       <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
         <v>-0.79200000000000004</v>
       </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="AQ14">
+      <c r="AS14">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
       <c r="AT14">
         <v>0</v>
       </c>
@@ -27340,8 +27388,14 @@
       <c r="BA14">
         <v>0</v>
       </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -27412,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-9.9000000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <v>-9.9000000000000005E-2</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
         <v>-0.79200000000000004</v>
-      </c>
-      <c r="AB15">
-        <v>1</v>
       </c>
       <c r="AC15">
         <v>1</v>
@@ -27439,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -27475,23 +27529,23 @@
         <v>0</v>
       </c>
       <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
         <v>-0.79200000000000004</v>
       </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="AV15">
+      <c r="AX15">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="AW15">
-        <v>0</v>
-      </c>
-      <c r="AX15">
-        <v>0</v>
-      </c>
       <c r="AY15">
         <v>0</v>
       </c>
@@ -27501,8 +27555,14 @@
       <c r="BA15">
         <v>0</v>
       </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7</v>
       </c>
@@ -27588,25 +27648,25 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>-9.9000000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="AD16">
         <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
         <v>-0.79200000000000004</v>
       </c>
-      <c r="AG16">
-        <v>1</v>
-      </c>
       <c r="AH16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AJ16">
         <v>0</v>
@@ -27648,22 +27708,28 @@
         <v>0</v>
       </c>
       <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
         <v>-0.109867358601</v>
       </c>
-      <c r="AX16">
+      <c r="AZ16">
         <v>-0.79200000000000004</v>
       </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
-      <c r="AZ16">
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="BA16">
+      <c r="BC16">
         <v>-9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8</v>
       </c>
@@ -27722,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
         <v>-0.79200000000000004</v>
-      </c>
-      <c r="U17">
-        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="V17">
         <v>-9.9000000000000005E-2</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -27764,38 +27830,38 @@
         <v>0</v>
       </c>
       <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
         <v>1</v>
       </c>
-      <c r="AI17">
+      <c r="AK17">
         <v>0.90100000000000002</v>
       </c>
-      <c r="AJ17">
+      <c r="AL17">
         <v>0.109</v>
       </c>
-      <c r="AK17">
+      <c r="AM17">
         <v>0.109</v>
       </c>
-      <c r="AL17">
+      <c r="AN17">
         <v>0.90100000000000002</v>
       </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="AO17">
+      <c r="AQ17">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="AP17">
+      <c r="AR17">
         <v>-0.79200000000000004</v>
       </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
       <c r="AS17">
         <v>0</v>
       </c>
@@ -27823,8 +27889,14 @@
       <c r="BA17">
         <v>0</v>
       </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9</v>
       </c>
@@ -27898,16 +27970,16 @@
         <v>0</v>
       </c>
       <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
         <v>-0.79200000000000004</v>
-      </c>
-      <c r="Z18">
-        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AA18">
         <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AC18">
         <v>0</v>
@@ -27928,50 +28000,50 @@
         <v>0</v>
       </c>
       <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="AJ18">
+      <c r="AL18">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
         <v>-0.79200000000000004</v>
       </c>
-      <c r="AM18">
+      <c r="AO18">
         <v>1</v>
       </c>
-      <c r="AN18">
+      <c r="AP18">
         <v>1</v>
       </c>
-      <c r="AO18">
+      <c r="AQ18">
         <v>0.20799999999999999</v>
       </c>
-      <c r="AP18">
+      <c r="AR18">
         <v>0.90100000000000002</v>
       </c>
-      <c r="AQ18">
+      <c r="AS18">
         <v>0.90100000000000002</v>
       </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="AT18">
+      <c r="AV18">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="AU18">
+      <c r="AW18">
         <v>-0.79200000000000004</v>
       </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
-      <c r="AW18">
-        <v>0</v>
-      </c>
       <c r="AX18">
         <v>0</v>
       </c>
@@ -27984,8 +28056,14 @@
       <c r="BA18">
         <v>0</v>
       </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10</v>
       </c>
@@ -28074,16 +28152,16 @@
         <v>0</v>
       </c>
       <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
         <v>-0.79200000000000004</v>
-      </c>
-      <c r="AE19">
-        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AF19">
         <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -28104,49 +28182,55 @@
         <v>0</v>
       </c>
       <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="AO19">
+      <c r="AQ19">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
         <v>-0.79200000000000004</v>
       </c>
-      <c r="AR19">
+      <c r="AT19">
         <v>1</v>
       </c>
-      <c r="AS19">
+      <c r="AU19">
         <v>1</v>
       </c>
-      <c r="AT19">
+      <c r="AV19">
         <v>0.20799999999999999</v>
       </c>
-      <c r="AU19">
+      <c r="AW19">
         <v>0.90100000000000002</v>
       </c>
-      <c r="AV19">
+      <c r="AX19">
         <v>0.90100000000000002</v>
       </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
-      <c r="AX19">
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="AY19">
+      <c r="BA19">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="AZ19">
+      <c r="BB19">
         <v>-0.79200000000000004</v>
       </c>
-      <c r="BA19">
+      <c r="BC19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>11</v>
       </c>
@@ -28280,25 +28364,25 @@
         <v>0</v>
       </c>
       <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="AT20">
+      <c r="AV20">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
         <v>-0.79200000000000004</v>
       </c>
-      <c r="AW20">
+      <c r="AY20">
         <v>1</v>
-      </c>
-      <c r="AX20">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="AY20">
-        <v>0.109</v>
       </c>
       <c r="AZ20">
         <v>0.90100000000000002</v>
@@ -28306,14 +28390,20 @@
       <c r="BA20">
         <v>0.109</v>
       </c>
+      <c r="BB20">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="BC20">
+        <v>0.109</v>
+      </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="G21" s="1"/>
       <c r="L21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>0</v>
       </c>
@@ -28327,7 +28417,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1.0143700160580695</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -28342,7 +28432,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.3202616622786174</v>
       </c>
       <c r="L22" s="1">
         <v>0</v>
@@ -28357,10 +28447,10 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.1790364244211815</v>
       </c>
       <c r="Q22">
-        <v>0.93377886810499966</v>
+        <v>93.379684814159432</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -28369,7 +28459,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.153973970288285</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -28384,7 +28474,7 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>0.48759432448868884</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -28405,13 +28495,13 @@
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>0.16832910988702543</v>
       </c>
       <c r="AG22">
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>1</v>
+        <v>2.7755575615628914E-17</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -28420,7 +28510,7 @@
         <v>0</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>1.1250455524187066</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -28435,7 +28525,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>0.13804083564903566</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -28456,7 +28546,7 @@
         <v>0</v>
       </c>
       <c r="AW22">
-        <v>0</v>
+        <v>3.3663290353014824E-2</v>
       </c>
       <c r="AX22">
         <v>0</v>
@@ -28468,10 +28558,16 @@
         <v>0</v>
       </c>
       <c r="BA22">
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>106</v>
       </c>
@@ -28482,32 +28578,32 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
-        <f>SUMPRODUCT(B9:BA9, B22:BA22)</f>
-        <v>0</v>
+        <f>SUMPRODUCT(B9:BC9, B22:BC22)</f>
+        <v>-9.9920072216264089E-16</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="J30">
-        <f>SUMPRODUCT(B5:BA5, B22:BA22)</f>
-        <v>0.66898132360199969</v>
+        <f>SUMPRODUCT(B5:BC5, B22:BC22)</f>
+        <v>93.114872206725735</v>
       </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
-        <f>SUMPRODUCT(B10:BA10, B22:BA22)</f>
-        <v>0</v>
+        <f>SUMPRODUCT(B10:BC10, B22:BC22)</f>
+        <v>1.5543122344752192E-15</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
-        <f>SUMPRODUCT(B11:BA11, B22:BA22)</f>
-        <v>0</v>
+        <f>SUMPRODUCT(B11:BC11, B22:BC22)</f>
+        <v>4.0661918276896358E-15</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -28515,8 +28611,8 @@
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C33" s="1">
-        <f>SUMPRODUCT(B12:BA12, B22:BA22)</f>
-        <v>-3.3306690738754696E-16</v>
+        <f>SUMPRODUCT(B12:BC12, B22:BC22)</f>
+        <v>1.8540724511240114E-14</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -28524,7 +28620,7 @@
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C34" s="1">
-        <f>SUMPRODUCT(B13:BA13,B22:BA22)</f>
+        <f>SUMPRODUCT(B13:BC13, B22:BC22)</f>
         <v>0</v>
       </c>
       <c r="G34">
@@ -28533,8 +28629,8 @@
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
-        <f>SUMPRODUCT(B14:BA14, B22:BA22)</f>
-        <v>0</v>
+        <f>SUMPRODUCT(B14:BC14, B22:BC22)</f>
+        <v>5.1070259132757201E-15</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -28542,8 +28638,8 @@
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C36" s="1">
-        <f>SUMPRODUCT(B15:BA15, B22:BA22)</f>
-        <v>0</v>
+        <f>SUMPRODUCT(B15:BC15, B22:BC22)</f>
+        <v>-2.1337098754514727E-16</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -28551,8 +28647,8 @@
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C37" s="1">
-        <f>SUMPRODUCT(B16:BA16, B22:BA22)</f>
-        <v>0</v>
+        <f>SUMPRODUCT(B16:BC16, B22:BC22)</f>
+        <v>2.7755575615628914E-19</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -28560,8 +28656,8 @@
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C38" s="1">
-        <f>SUMPRODUCT(B17:BA17, B22:BA22)</f>
-        <v>1</v>
+        <f>SUMPRODUCT(B17:BC17,B22:BC22)</f>
+        <v>1.0000000000000002</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -28569,8 +28665,8 @@
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C39" s="1">
-        <f>SUMPRODUCT(B18:BA18, B22:BA22)</f>
-        <v>0</v>
+        <f>SUMPRODUCT(B18:BC18, B22:BC22)</f>
+        <v>-4.0384362520740069E-15</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -28578,8 +28674,8 @@
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C40" s="1">
-        <f>SUMPRODUCT(B19:BA19, B22:BA22)</f>
-        <v>0</v>
+        <f>SUMPRODUCT(B19:BC19, B22:BC22)</f>
+        <v>-4.043210211079895E-15</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -28587,8 +28683,8 @@
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C41" s="1">
-        <f>SUMPRODUCT(B20:BA20, B22:BA22)</f>
-        <v>0</v>
+        <f>SUMPRODUCT(B20:BC20,B22:BC22)</f>
+        <v>3.872457909892546E-16</v>
       </c>
       <c r="G41">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="solver_adj" localSheetId="0">data!$B$2:$BA$2</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'Gamma=0.99'!$B$22:$BA$22</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Gamma=1'!$B$9:$BA$9</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Gamma=1'!$B$22:$BC$22</definedName>
     <definedName name="solver_adj" localSheetId="4">Sheet2!$B$4:$BA$4</definedName>
     <definedName name="solver_cvg" localSheetId="0">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
@@ -47,7 +47,7 @@
     <definedName name="solver_lhs0" localSheetId="1" hidden="1">'Gamma=1'!$C$30:$C$41</definedName>
     <definedName name="solver_lhs1" localSheetId="0">data!$B$2:$BA$2</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Gamma=0.99'!$B$22:$BA$22</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Gamma=1'!$B$9:$BA$9</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Gamma=1'!$B$22:$BC$22</definedName>
     <definedName name="solver_lhs1" localSheetId="4">Sheet2!$B$4:$BA$4</definedName>
     <definedName name="solver_lhs2" localSheetId="0">data!$C$26:$C$37</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Gamma=0.99'!$C$30:$C$41</definedName>
@@ -158,7 +158,7 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="4">3</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="149">
   <si>
     <t xml:space="preserve">x0(0) </t>
   </si>
@@ -3708,18 +3708,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:BA41"/>
+  <dimension ref="A3:BC41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="8.5703125"/>
+    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.5703125"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="8.5703125"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="8.5703125"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="8.5703125"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -3766,120 +3776,126 @@
         <v>68</v>
       </c>
       <c r="Q3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R3" t="s">
         <v>69</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>70</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>71</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>72</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>73</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>74</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>75</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>76</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>78</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>79</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>80</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>81</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>82</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>83</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>84</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI3" t="s">
         <v>85</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AJ3" t="s">
         <v>86</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AK3" t="s">
         <v>87</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AL3" t="s">
         <v>88</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AM3" t="s">
         <v>89</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AN3" t="s">
         <v>90</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AO3" t="s">
         <v>91</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AP3" t="s">
         <v>92</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AQ3" t="s">
         <v>93</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AR3" t="s">
         <v>94</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AS3" t="s">
         <v>95</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AT3" t="s">
         <v>96</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AU3" t="s">
         <v>97</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AV3" t="s">
         <v>98</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AW3" t="s">
         <v>99</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AX3" t="s">
         <v>100</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AY3" t="s">
         <v>101</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AZ3" t="s">
         <v>102</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="BA3" t="s">
         <v>103</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BB3" t="s">
         <v>104</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BC3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>-0.18249194524500001</v>
+        <v>-0.178144814422</v>
       </c>
       <c r="C5">
         <v>-0.04</v>
@@ -3894,7 +3910,7 @@
         <v>-0.04</v>
       </c>
       <c r="G5">
-        <v>-0.12690912569999999</v>
+        <v>-0.124534843925</v>
       </c>
       <c r="H5">
         <v>-0.04</v>
@@ -3909,7 +3925,7 @@
         <v>-0.04</v>
       </c>
       <c r="L5">
-        <v>-6.9444634716699996E-2</v>
+        <v>-6.8402961281399999E-2</v>
       </c>
       <c r="M5">
         <v>-0.04</v>
@@ -3927,10 +3943,10 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <v>-0.22737274982299999</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>-0.04</v>
+        <v>-0.22099842755400001</v>
       </c>
       <c r="T5">
         <v>-0.04</v>
@@ -3942,10 +3958,10 @@
         <v>-0.04</v>
       </c>
       <c r="W5">
-        <v>-0.186746885483</v>
+        <v>-0.04</v>
       </c>
       <c r="X5">
-        <v>-0.04</v>
+        <v>-0.18213990427000001</v>
       </c>
       <c r="Y5">
         <v>-0.04</v>
@@ -3957,10 +3973,10 @@
         <v>-0.04</v>
       </c>
       <c r="AB5">
-        <v>-0.22506419235899999</v>
+        <v>-0.04</v>
       </c>
       <c r="AC5">
-        <v>-0.04</v>
+        <v>-0.21850130777900001</v>
       </c>
       <c r="AD5">
         <v>-0.04</v>
@@ -3972,16 +3988,16 @@
         <v>-0.04</v>
       </c>
       <c r="AG5">
+        <v>-0.04</v>
+      </c>
+      <c r="AH5">
         <v>-1</v>
       </c>
-      <c r="AH5">
-        <v>-0.27377345568400002</v>
-      </c>
       <c r="AI5">
-        <v>-0.04</v>
+        <v>-1</v>
       </c>
       <c r="AJ5">
-        <v>-0.04</v>
+        <v>-0.26479754450300003</v>
       </c>
       <c r="AK5">
         <v>-0.04</v>
@@ -3990,13 +4006,13 @@
         <v>-0.04</v>
       </c>
       <c r="AM5">
-        <v>-0.245490715917</v>
+        <v>-0.04</v>
       </c>
       <c r="AN5">
         <v>-0.04</v>
       </c>
       <c r="AO5">
-        <v>-0.04</v>
+        <v>-0.23794379711700001</v>
       </c>
       <c r="AP5">
         <v>-0.04</v>
@@ -4005,13 +4021,13 @@
         <v>-0.04</v>
       </c>
       <c r="AR5">
-        <v>-0.28759361316900001</v>
+        <v>-0.04</v>
       </c>
       <c r="AS5">
         <v>-0.04</v>
       </c>
       <c r="AT5">
-        <v>-0.04</v>
+        <v>-0.27755527077100001</v>
       </c>
       <c r="AU5">
         <v>-0.04</v>
@@ -4020,13 +4036,13 @@
         <v>-0.04</v>
       </c>
       <c r="AW5">
-        <v>-0.29998851655999997</v>
+        <v>-0.04</v>
       </c>
       <c r="AX5">
         <v>-0.04</v>
       </c>
       <c r="AY5">
-        <v>-0.04</v>
+        <v>-0.28836411856499999</v>
       </c>
       <c r="AZ5">
         <v>-0.04</v>
@@ -4034,8 +4050,14 @@
       <c r="BA5">
         <v>-0.04</v>
       </c>
+      <c r="BB5">
+        <v>-0.04</v>
+      </c>
+      <c r="BC5">
+        <v>-0.04</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -4082,150 +4104,156 @@
         <v>14</v>
       </c>
       <c r="Q7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R7" t="s">
         <v>15</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>16</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>17</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>18</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>19</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>20</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>21</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>22</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>23</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>24</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>25</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>26</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>27</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>28</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>29</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>30</v>
       </c>
-      <c r="AG7" t="s">
-        <v>109</v>
-      </c>
       <c r="AH7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>32</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AK7" t="s">
         <v>33</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AL7" t="s">
         <v>34</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AM7" t="s">
         <v>35</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AN7" t="s">
         <v>36</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AO7" t="s">
         <v>37</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AP7" t="s">
         <v>38</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AQ7" t="s">
         <v>39</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AR7" t="s">
         <v>40</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AS7" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AT7" t="s">
         <v>42</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AU7" t="s">
         <v>43</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AV7" t="s">
         <v>44</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AW7" t="s">
         <v>45</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AX7" t="s">
         <v>46</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AY7" t="s">
         <v>47</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AZ7" t="s">
         <v>48</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="BA7" t="s">
         <v>49</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BB7" t="s">
         <v>50</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BC7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>1.5029380364232241E-4</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="G9">
-        <v>1.5029380364231141E-4</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>-0.79200000000000004</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.502938036424156E-4</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -4240,25 +4268,25 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.0016388807765695</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1.5029380364251182E-4</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>-0.79200000000000004</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="W9">
-        <v>1.5029380364249526E-4</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -4273,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>1.5029380364221763E-4</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -4288,10 +4316,10 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>1.6699311515824749E-4</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>1.0001502938034941</v>
+        <v>0</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -4306,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>1.5029380364246545E-4</v>
+        <v>0</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -4321,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>1.502938036424796E-4</v>
+        <v>0</v>
       </c>
       <c r="AS9">
         <v>0</v>
@@ -4336,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="AW9">
-        <v>1.5029380364243777E-4</v>
+        <v>0</v>
       </c>
       <c r="AX9">
         <v>0</v>
@@ -4350,76 +4378,246 @@
       <c r="BA9">
         <v>0</v>
       </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="D10">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>-0.79200000000000004</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="K10">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="N10">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="O10">
+        <v>-0.79200000000000004</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>-0.79200000000000004</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="AB10">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0.99993598239600001</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9</v>
-      </c>
-      <c r="G11" s="1">
-        <v>-3.5956175291999997E-5</v>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-0.1</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="I11">
-        <v>-0.1</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="J11">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-1.8304319336999999E-5</v>
+        <v>-0.79200000000000004</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-      <c r="R11" s="1">
-        <v>-9.6621262696999999E-5</v>
+      <c r="R11">
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>-0.1</v>
-      </c>
-      <c r="W11" s="1">
-        <v>-7.0623653806999999E-5</v>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -4434,25 +4632,25 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>-1.09747081177E-4</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>-0.79200000000000004</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AH11">
-        <v>-1.5012621614799999E-4</v>
+        <v>0</v>
       </c>
       <c r="AI11">
         <v>0</v>
@@ -4467,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>-1.2849480200599999E-4</v>
+        <v>0</v>
       </c>
       <c r="AN11">
         <v>0</v>
@@ -4482,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>-1.8971074391099999E-4</v>
+        <v>0</v>
       </c>
       <c r="AS11">
         <v>0</v>
@@ -4497,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="AW11">
-        <v>-2.5146403470999997E-4</v>
+        <v>0</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -4511,64 +4709,70 @@
       <c r="BA11">
         <v>0</v>
       </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="1">
-        <v>-6.4017604217999995E-5</v>
+      <c r="B12">
+        <v>-0.95545452572199996</v>
       </c>
       <c r="C12">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.99996404382500004</v>
+        <v>-0.96886106162600005</v>
       </c>
       <c r="H12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>-0.98289661104500003</v>
+      </c>
+      <c r="M12">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="N12">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>-0.79200000000000004</v>
+      </c>
+      <c r="Q12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>0.9</v>
-      </c>
-      <c r="K12">
-        <v>0.9</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-1.8304319336999999E-5</v>
-      </c>
-      <c r="M12">
-        <v>-0.1</v>
-      </c>
-      <c r="N12">
-        <v>-0.1</v>
-      </c>
-      <c r="O12">
-        <v>-0.8</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <v>-9.6621262696999999E-5</v>
+      <c r="R12">
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>-0.94473635461899996</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -4579,26 +4783,26 @@
       <c r="V12">
         <v>0</v>
       </c>
-      <c r="W12" s="1">
-        <v>-7.0623653806999999E-5</v>
+      <c r="W12">
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-0.8</v>
+        <v>-0.95445480541700001</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>-1.09747081177E-4</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>-0.94535870543099998</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -4613,13 +4817,13 @@
         <v>0</v>
       </c>
       <c r="AH12">
-        <v>-1.5012621614799999E-4</v>
+        <v>0</v>
       </c>
       <c r="AI12">
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>-0.93377886810499999</v>
       </c>
       <c r="AK12">
         <v>0</v>
@@ -4628,13 +4832,13 @@
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>-1.2849480200599999E-4</v>
+        <v>0</v>
       </c>
       <c r="AN12">
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>-0.94049535918799998</v>
       </c>
       <c r="AP12">
         <v>0</v>
@@ -4643,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>-1.8971074391099999E-4</v>
+        <v>0</v>
       </c>
       <c r="AS12">
         <v>0</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>-0.93058372687699997</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4658,13 +4862,13 @@
         <v>0</v>
       </c>
       <c r="AW12">
-        <v>-2.5146403470999997E-4</v>
+        <v>0</v>
       </c>
       <c r="AX12">
         <v>0</v>
       </c>
       <c r="AY12">
-        <v>0</v>
+        <v>-0.81799450411899999</v>
       </c>
       <c r="AZ12">
         <v>0</v>
@@ -4672,109 +4876,115 @@
       <c r="BA12">
         <v>0</v>
       </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="1">
-        <v>-6.4017604217999995E-5</v>
+      <c r="B13">
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>-0.79200000000000004</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>-3.5956175291999997E-5</v>
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.99998169568100004</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>1</v>
       </c>
-      <c r="O13">
-        <v>0.9</v>
-      </c>
-      <c r="P13">
-        <v>0.9</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
-        <v>-9.6621262696999999E-5</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
       <c r="T13">
-        <v>0</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13" s="1">
-        <v>-7.0623653806999999E-5</v>
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>-0.79200000000000004</v>
       </c>
       <c r="AB13">
-        <v>-1.09747081177E-4</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="AD13">
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AG13">
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>-1.5012621614799999E-4</v>
+        <v>0</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -4783,16 +4993,16 @@
         <v>0</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>-0.79200000000000004</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>-1.2849480200599999E-4</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -4804,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>-1.8971074391099999E-4</v>
+        <v>0</v>
       </c>
       <c r="AS13">
         <v>0</v>
@@ -4819,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="AW13">
-        <v>-2.5146403470999997E-4</v>
+        <v>0</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -4833,13 +5043,19 @@
       <c r="BA13">
         <v>0</v>
       </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14">
-        <v>-1.00006502162</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4854,88 +5070,88 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>-1.00003648644</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>-0.79200000000000004</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="L14">
-        <v>-1.00001859484</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="U14">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>-0.79200000000000004</v>
+      </c>
+      <c r="X14">
         <v>1</v>
       </c>
-      <c r="R14">
-        <v>-1.00009806025</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>-1.0000717457899999</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>-1.0001113452499999</v>
+        <v>1</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>-0.79200000000000004</v>
       </c>
       <c r="AG14">
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>-1.0001524719199999</v>
+        <v>0</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -4950,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>-1.0001303722199999</v>
+        <v>0</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -4959,16 +5175,16 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>-0.79200000000000004</v>
       </c>
       <c r="AQ14">
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>-1.00019271475</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AT14">
         <v>0</v>
@@ -4980,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="AW14">
-        <v>-0.88914407064199996</v>
+        <v>0</v>
       </c>
       <c r="AX14">
         <v>0</v>
@@ -4994,28 +5210,34 @@
       <c r="BA14">
         <v>0</v>
       </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="1">
-        <v>-6.4017604217999995E-5</v>
+      <c r="B15">
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>-0.1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>-3.5956175291999997E-5</v>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -5029,89 +5251,89 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15" s="1">
-        <v>-1.8304319336999999E-5</v>
+      <c r="L15">
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>-0.79200000000000004</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0.99990337873699997</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="Z15">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>-0.79200000000000004</v>
+      </c>
+      <c r="AC15">
         <v>1</v>
       </c>
-      <c r="W15" s="1">
-        <v>-7.0623653806999999E-5</v>
-      </c>
-      <c r="X15">
-        <v>-0.1</v>
-      </c>
-      <c r="Y15">
-        <v>-0.1</v>
-      </c>
-      <c r="Z15">
-        <v>-0.8</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>-1.09747081177E-4</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>-1.5012621614799999E-4</v>
+        <v>0</v>
       </c>
       <c r="AI15">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
         <v>0</v>
       </c>
       <c r="AK15">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
-        <v>-1.2849480200599999E-4</v>
+        <v>0</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -5126,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>-1.8971074391099999E-4</v>
+        <v>0</v>
       </c>
       <c r="AS15">
         <v>0</v>
@@ -5135,16 +5357,16 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>-0.79200000000000004</v>
       </c>
       <c r="AV15">
         <v>0</v>
       </c>
       <c r="AW15">
-        <v>-2.5146403470999997E-4</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AY15">
         <v>0</v>
@@ -5155,13 +5377,19 @@
       <c r="BA15">
         <v>0</v>
       </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
-      <c r="B16" s="1">
-        <v>-6.4017604217999995E-5</v>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -5175,23 +5403,23 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" s="1">
-        <v>-3.5956175291999997E-5</v>
+      <c r="G16">
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>-0.1</v>
-      </c>
-      <c r="L16" s="1">
-        <v>-1.8304319336999999E-5</v>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -5208,60 +5436,60 @@
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16" s="1">
-        <v>-9.6621262696999999E-5</v>
+      <c r="R16">
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>0.99992937634599999</v>
+        <v>0</v>
       </c>
       <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="AE16">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>-0.79200000000000004</v>
+      </c>
+      <c r="AH16">
         <v>1</v>
       </c>
-      <c r="Y16">
+      <c r="AI16">
         <v>1</v>
       </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AA16">
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <v>-1.09747081177E-4</v>
-      </c>
-      <c r="AC16">
-        <v>-0.1</v>
-      </c>
-      <c r="AD16">
-        <v>-0.1</v>
-      </c>
-      <c r="AE16">
-        <v>-0.8</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>-1.5012621614799999E-4</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
       <c r="AJ16">
         <v>0</v>
       </c>
@@ -5272,22 +5500,22 @@
         <v>0</v>
       </c>
       <c r="AM16">
-        <v>-1.2849480200599999E-4</v>
+        <v>0</v>
       </c>
       <c r="AN16">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="AO16">
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AQ16">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AR16">
-        <v>-1.8971074391099999E-4</v>
+        <v>0</v>
       </c>
       <c r="AS16">
         <v>0</v>
@@ -5302,27 +5530,33 @@
         <v>0</v>
       </c>
       <c r="AW16">
-        <v>-2.5146403470999997E-4</v>
+        <v>0</v>
       </c>
       <c r="AX16">
         <v>0</v>
       </c>
       <c r="AY16">
-        <v>0</v>
+        <v>-0.109867358601</v>
       </c>
       <c r="AZ16">
-        <v>0</v>
+        <v>-0.79200000000000004</v>
       </c>
       <c r="BA16">
         <v>0</v>
       </c>
+      <c r="BB16">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="BC16">
+        <v>-9.9000000000000005E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
-      <c r="B17" s="1">
-        <v>-6.4017604217999995E-5</v>
+      <c r="B17">
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -5336,8 +5570,8 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
-        <v>-3.5956175291999997E-5</v>
+      <c r="G17">
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -5351,26 +5585,26 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17" s="1">
-        <v>-1.8304319336999999E-5</v>
+      <c r="L17">
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17" s="1">
-        <v>-9.6621262696999999E-5</v>
+      <c r="R17">
+        <v>0</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -5379,91 +5613,91 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>-0.79200000000000004</v>
       </c>
       <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17" s="1">
-        <v>-7.0623653806999999E-5</v>
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="W17">
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="X17">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.99989025291900002</v>
+        <v>0</v>
       </c>
       <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
         <v>1</v>
       </c>
-      <c r="AD17">
-        <v>1</v>
-      </c>
-      <c r="AE17">
-        <v>1</v>
-      </c>
-      <c r="AF17">
-        <v>1</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>-1.5012621614799999E-4</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
-        <v>0</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="AM17">
-        <v>-1.2849480200599999E-4</v>
+        <v>0.109</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="AO17">
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AR17">
-        <v>-1.8971074391099999E-4</v>
+        <v>-0.79200000000000004</v>
       </c>
       <c r="AS17">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="AT17">
         <v>0</v>
       </c>
       <c r="AU17">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AV17">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AW17">
-        <v>-2.5146403470999997E-4</v>
+        <v>0</v>
       </c>
       <c r="AX17">
         <v>0</v>
@@ -5477,13 +5711,19 @@
       <c r="BA17">
         <v>0</v>
       </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18" s="1">
-        <v>-6.4017604217999995E-5</v>
+      <c r="B18">
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -5497,8 +5737,8 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" s="1">
-        <v>-3.5956175291999997E-5</v>
+      <c r="G18">
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -5512,8 +5752,8 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18" s="1">
-        <v>-1.8304319336999999E-5</v>
+      <c r="L18">
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -5530,8 +5770,8 @@
       <c r="Q18">
         <v>0</v>
       </c>
-      <c r="R18" s="1">
-        <v>-9.6621262696999999E-5</v>
+      <c r="R18">
+        <v>0</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -5545,8 +5785,8 @@
       <c r="V18">
         <v>0</v>
       </c>
-      <c r="W18" s="1">
-        <v>-7.0623653806999999E-5</v>
+      <c r="W18">
+        <v>0</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -5555,96 +5795,102 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-0.79200000000000004</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AB18">
-        <v>-1.09747081177E-4</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AC18">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="AL18">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>-0.79200000000000004</v>
+      </c>
+      <c r="AO18">
         <v>1</v>
       </c>
-      <c r="AH18">
-        <v>-1.5012621614799999E-4</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>-1.2849480200599999E-4</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
       <c r="AP18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="AR18">
-        <v>-1.8971074391099999E-4</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="AT18">
         <v>0</v>
       </c>
       <c r="AU18">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AW18">
-        <v>-0.111362575146</v>
+        <v>-0.79200000000000004</v>
       </c>
       <c r="AX18">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="AY18">
         <v>0</v>
       </c>
       <c r="AZ18">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="BA18">
-        <v>-0.1</v>
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" s="1">
-        <v>-6.4017604217999995E-5</v>
+      <c r="B19">
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -5658,8 +5904,8 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" s="1">
-        <v>-3.5956175291999997E-5</v>
+      <c r="G19">
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -5673,8 +5919,8 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19" s="1">
-        <v>-1.8304319336999999E-5</v>
+      <c r="L19">
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -5691,23 +5937,23 @@
       <c r="Q19">
         <v>0</v>
       </c>
-      <c r="R19" s="1">
-        <v>-9.6621262696999999E-5</v>
+      <c r="R19">
+        <v>0</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>-0.1</v>
-      </c>
-      <c r="W19" s="1">
-        <v>-7.0623653806999999E-5</v>
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -5722,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>-1.09747081177E-4</v>
+        <v>0</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -5731,81 +5977,87 @@
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>-0.79200000000000004</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AH19">
-        <v>0.99984987378400003</v>
+        <v>0</v>
       </c>
       <c r="AI19">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AK19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AM19">
-        <v>-1.2849480200599999E-4</v>
+        <v>0</v>
       </c>
       <c r="AN19">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AO19">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>-0.8</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="AR19">
-        <v>-1.8971074391099999E-4</v>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>-0.79200000000000004</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="AW19">
-        <v>-2.5146403470999997E-4</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="AX19">
-        <v>0</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="AY19">
         <v>0</v>
       </c>
       <c r="AZ19">
-        <v>0</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="BA19">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="BB19">
+        <v>-0.79200000000000004</v>
+      </c>
+      <c r="BC19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>9</v>
       </c>
-      <c r="B20" s="1">
-        <v>-6.4017604217999995E-5</v>
+      <c r="B20">
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -5819,8 +6071,8 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" s="1">
-        <v>-3.5956175291999997E-5</v>
+      <c r="G20">
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -5834,8 +6086,8 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" s="1">
-        <v>-1.8304319336999999E-5</v>
+      <c r="L20">
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -5852,8 +6104,8 @@
       <c r="Q20">
         <v>0</v>
       </c>
-      <c r="R20" s="1">
-        <v>-9.6621262696999999E-5</v>
+      <c r="R20">
+        <v>0</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -5867,23 +6119,23 @@
       <c r="V20">
         <v>0</v>
       </c>
-      <c r="W20" s="1">
-        <v>-7.0623653806999999E-5</v>
+      <c r="W20">
+        <v>0</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>-1.09747081177E-4</v>
+        <v>0</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -5901,389 +6153,244 @@
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>-1.5012621614799999E-4</v>
+        <v>0</v>
       </c>
       <c r="AI20">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AJ20">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="AM20">
-        <v>0.99987150519800005</v>
+        <v>0</v>
       </c>
       <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="AV20">
+        <v>-9.9000000000000005E-2</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>-0.79200000000000004</v>
+      </c>
+      <c r="AY20">
         <v>1</v>
       </c>
-      <c r="AO20">
-        <v>0.2</v>
-      </c>
-      <c r="AP20">
-        <v>0.9</v>
-      </c>
-      <c r="AQ20">
-        <v>0.9</v>
-      </c>
-      <c r="AR20">
-        <v>-1.8971074391099999E-4</v>
-      </c>
-      <c r="AS20">
-        <v>-0.1</v>
-      </c>
-      <c r="AT20">
-        <v>-0.1</v>
-      </c>
-      <c r="AU20">
-        <v>-0.8</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
-      <c r="AW20">
-        <v>-2.5146403470999997E-4</v>
-      </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
       <c r="AZ20">
-        <v>0</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>0.109</v>
+      </c>
+      <c r="BB20">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="BC20">
+        <v>0.109</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1">
-        <v>-6.4017604217999995E-5</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>-3.5956175291999997E-5</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>-1.8304319336999999E-5</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1">
-        <v>-9.6621262696999999E-5</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21" s="1">
-        <v>-7.0623653806999999E-5</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>-1.09747081177E-4</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>-0.8</v>
-      </c>
-      <c r="AE21">
-        <v>-0.1</v>
-      </c>
-      <c r="AF21">
-        <v>-0.1</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>-1.5012621614799999E-4</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>-1.2849480200599999E-4</v>
-      </c>
-      <c r="AN21">
-        <v>-0.1</v>
-      </c>
-      <c r="AO21">
-        <v>-0.1</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>-0.8</v>
-      </c>
-      <c r="AR21">
-        <v>0.99981028925600002</v>
-      </c>
-      <c r="AS21">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.93377886810499966</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
         <v>1</v>
       </c>
-      <c r="AT21">
-        <v>0.2</v>
-      </c>
-      <c r="AU21">
-        <v>0.9</v>
-      </c>
-      <c r="AV21">
-        <v>0.9</v>
-      </c>
-      <c r="AW21">
-        <v>-2.5146403470999997E-4</v>
-      </c>
-      <c r="AX21">
-        <v>-0.1</v>
-      </c>
-      <c r="AY21">
-        <v>-0.1</v>
-      </c>
-      <c r="AZ21">
-        <v>-0.8</v>
-      </c>
-      <c r="BA21">
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>0</v>
+      </c>
+      <c r="BC22">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>11</v>
-      </c>
-      <c r="B22" s="1">
-        <v>-6.4017604217999995E-5</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>-3.5956175291999997E-5</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>-1.8304319336999999E-5</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1">
-        <v>-9.6621262696999999E-5</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22" s="1">
-        <v>-7.0623653806999999E-5</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>-1.09747081177E-4</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>-1.5012621614799999E-4</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>-1.2849480200599999E-4</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>-1.8971074391099999E-4</v>
-      </c>
-      <c r="AS22">
-        <v>-0.1</v>
-      </c>
-      <c r="AT22">
-        <v>-0.1</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-      <c r="AV22">
-        <v>-0.8</v>
-      </c>
-      <c r="AW22">
-        <v>0.99974853596500002</v>
-      </c>
-      <c r="AX22">
-        <v>0.9</v>
-      </c>
-      <c r="AY22">
-        <v>0.1</v>
-      </c>
-      <c r="AZ22">
-        <v>0.9</v>
-      </c>
-      <c r="BA22">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>106</v>
       </c>
@@ -6294,32 +6401,32 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
-        <f>SUMPRODUCT(B9:BA9, B11:BA11)</f>
-        <v>-3.8980952541010433E-17</v>
+        <f>SUMPRODUCT(B9:BC9, B22:BC22)</f>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="J30">
-        <f>SUMPRODUCT(B5:BA5, B9:BA9)</f>
-        <v>0.72737907630599341</v>
+        <f>SUMPRODUCT(B5:BC5, B22:BC22)</f>
+        <v>0.66898132360199969</v>
       </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
-        <f>SUMPRODUCT(B9:BA9, B12:BA12)</f>
-        <v>-3.8872532323761883E-17</v>
+        <f>SUMPRODUCT(B10:BC10, B22:BC22)</f>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
-        <f>SUMPRODUCT(B9:BA9, B13:BA13)</f>
-        <v>7.2095560030129496E-17</v>
+        <f>SUMPRODUCT(B11:BC11, B22:BC22)</f>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -6327,8 +6434,8 @@
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C33" s="1">
-        <f>SUMPRODUCT(B9:BA9, B14:BA14)</f>
-        <v>4.8000340681364495E-16</v>
+        <f>SUMPRODUCT(B12:BC12, B22:BC22)</f>
+        <v>-3.3306690738754696E-16</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -6336,8 +6443,8 @@
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C34" s="1">
-        <f>SUMPRODUCT(B9:BA9, B15:BA15)</f>
-        <v>7.2122665084441633E-17</v>
+        <f>SUMPRODUCT(B13:BC13, B22:BC22)</f>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -6345,8 +6452,8 @@
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
-        <f>SUMPRODUCT(B9:BA9, B16:BA16)</f>
-        <v>7.2068454975817358E-17</v>
+        <f>SUMPRODUCT(B14:BC14, B22:BC22)</f>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -6354,8 +6461,8 @@
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C36" s="1">
-        <f>SUMPRODUCT(B9:BA9, B17:BA17)</f>
-        <v>-1.4992193984058967E-16</v>
+        <f>SUMPRODUCT(B15:BC15, B22:BC22)</f>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -6363,8 +6470,8 @@
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C37" s="1">
-        <f>SUMPRODUCT(B9:BA9, B18:BA18)</f>
-        <v>1.3552527156068805E-20</v>
+        <f>SUMPRODUCT(B16:BC16, B22:BC22)</f>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -6372,8 +6479,8 @@
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C38" s="1">
-        <f>SUMPRODUCT(B9:BA9, B19:BA19)</f>
-        <v>0.99999999999999967</v>
+        <f>SUMPRODUCT(B17:BC17, B22:BC22)</f>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -6381,8 +6488,8 @@
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C39" s="1">
-        <f>SUMPRODUCT(B9:BA9, B20:BA20)</f>
-        <v>7.2203239093549199E-17</v>
+        <f>SUMPRODUCT(B18:BC18,B22:BC22)</f>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -6390,8 +6497,8 @@
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C40" s="1">
-        <f>SUMPRODUCT(B9:BA9, B21:BA21)</f>
-        <v>7.205944201586298E-17</v>
+        <f>SUMPRODUCT(B19:BC19, B22:BC22)</f>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -6399,8 +6506,8 @@
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C41" s="1">
-        <f>SUMPRODUCT(B9:BA9, B22:BA22)</f>
-        <v>2.7105054312137611E-20</v>
+        <f>SUMPRODUCT(B20:BC20, B22:BC22)</f>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -25882,8 +25989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:BA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,154 +9,191 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Gamma=1" sheetId="2" r:id="rId2"/>
-    <sheet name="ALLsata" sheetId="3" r:id="rId3"/>
-    <sheet name="Gamma=0.99" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="ALLsata" sheetId="3" r:id="rId2"/>
+    <sheet name="Gamma=0.7" sheetId="7" r:id="rId3"/>
+    <sheet name="Gamma=0.9" sheetId="6" r:id="rId4"/>
+    <sheet name="Gamma=0.99" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0">data!$B$2:$BA$2</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">'Gamma=0.99'!$B$22:$BC$22</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Gamma=1'!$B$9:$BA$9</definedName>
-    <definedName name="solver_adj" localSheetId="4">Sheet2!$B$4:$BA$4</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Gamma=0.7'!$B$22:$BC$22</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Gamma=0.9'!$B$22:$BC$22</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'Gamma=0.99'!$B$22:$BC$22</definedName>
+    <definedName name="solver_adj" localSheetId="5">Sheet2!$B$4:$BA$4</definedName>
     <definedName name="solver_cvg" localSheetId="0">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="4">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0">2</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_drv" localSheetId="4">2</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="5">2</definedName>
     <definedName name="solver_eng" localSheetId="0">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="4">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="5">2</definedName>
     <definedName name="solver_est" localSheetId="0">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="4">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5">1</definedName>
     <definedName name="solver_itr" localSheetId="0">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="4">2147483647</definedName>
-    <definedName name="solver_lhs0" localSheetId="3" hidden="1">'Gamma=0.99'!$C$30:$C$41</definedName>
-    <definedName name="solver_lhs0" localSheetId="1" hidden="1">'Gamma=1'!$C$30:$C$41</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5">2147483647</definedName>
+    <definedName name="solver_lhs0" localSheetId="2" hidden="1">'Gamma=0.7'!$C$30:$C$41</definedName>
+    <definedName name="solver_lhs0" localSheetId="3" hidden="1">'Gamma=0.9'!$C$30:$C$41</definedName>
+    <definedName name="solver_lhs0" localSheetId="4" hidden="1">'Gamma=0.99'!$C$30:$C$41</definedName>
     <definedName name="solver_lhs1" localSheetId="0">data!$B$2:$BA$2</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Gamma=0.99'!$B$22:$BC$22</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Gamma=1'!$B$9:$BA$9</definedName>
-    <definedName name="solver_lhs1" localSheetId="4">Sheet2!$B$4:$BA$4</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Gamma=0.7'!$B$22:$BC$22</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Gamma=0.9'!$B$22:$BC$22</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Gamma=0.99'!$B$22:$BC$22</definedName>
+    <definedName name="solver_lhs1" localSheetId="5">Sheet2!$B$4:$BA$4</definedName>
     <definedName name="solver_lhs2" localSheetId="0">data!$C$26:$C$37</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Gamma=0.99'!$C$30:$C$41</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Gamma=1'!$C$30:$C$41</definedName>
-    <definedName name="solver_lhs2" localSheetId="4">Sheet2!$C$28:$C$39</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Gamma=0.7'!$C$30:$C$41</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Gamma=0.9'!$C$30:$C$41</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Gamma=0.99'!$C$30:$C$41</definedName>
+    <definedName name="solver_lhs2" localSheetId="5">Sheet2!$C$28:$C$39</definedName>
     <definedName name="solver_mip" localSheetId="0">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="4">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="4">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5">30</definedName>
     <definedName name="solver_mrt" localSheetId="0">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="4">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="4">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5">2</definedName>
     <definedName name="solver_neg" localSheetId="0">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="4">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5">1</definedName>
     <definedName name="solver_nod" localSheetId="0">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="4">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0">2</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="4">2</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="5">2</definedName>
     <definedName name="solver_nwt" localSheetId="0">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="4">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="5">1</definedName>
     <definedName name="solver_opt" localSheetId="0">data!$J$26</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'Gamma=0.99'!$J$30</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'Gamma=1'!$J$30</definedName>
-    <definedName name="solver_opt" localSheetId="4">Sheet2!$J$28</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Gamma=0.7'!$J$30</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Gamma=0.9'!$J$30</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'Gamma=0.99'!$J$30</definedName>
+    <definedName name="solver_opt" localSheetId="5">Sheet2!$J$28</definedName>
     <definedName name="solver_pre" localSheetId="0">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="4">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="5">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0">2</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rbv" localSheetId="4">2</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="5">2</definedName>
+    <definedName name="solver_rel0" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel0" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel0" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel0" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0">3</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel1" localSheetId="4">3</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="5">3</definedName>
     <definedName name="solver_rel2" localSheetId="0">2</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="4">2</definedName>
-    <definedName name="solver_rhs0" localSheetId="3" hidden="1">'Gamma=0.99'!$G$30:$G$41</definedName>
-    <definedName name="solver_rhs0" localSheetId="1" hidden="1">'Gamma=1'!$G$30:$G$41</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="5">2</definedName>
+    <definedName name="solver_rhs0" localSheetId="2" hidden="1">'Gamma=0.7'!$G$30:$G$41</definedName>
+    <definedName name="solver_rhs0" localSheetId="3" hidden="1">'Gamma=0.9'!$G$30:$G$41</definedName>
+    <definedName name="solver_rhs0" localSheetId="4" hidden="1">'Gamma=0.99'!$G$30:$G$41</definedName>
     <definedName name="solver_rhs1" localSheetId="0">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs1" localSheetId="4">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="5">0</definedName>
     <definedName name="solver_rhs2" localSheetId="0">data!$G$26:$G$37</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'Gamma=0.99'!$G$30:$G$41</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Gamma=1'!$G$30:$G$41</definedName>
-    <definedName name="solver_rhs2" localSheetId="4">Sheet2!$G$28:$G$39</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Gamma=0.7'!$G$30:$G$41</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'Gamma=0.9'!$G$30:$G$41</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'Gamma=0.99'!$G$30:$G$41</definedName>
+    <definedName name="solver_rhs2" localSheetId="5">Sheet2!$G$28:$G$39</definedName>
     <definedName name="solver_rlx" localSheetId="0">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="4">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5">2</definedName>
     <definedName name="solver_rsd" localSheetId="0">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="4">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5">0</definedName>
     <definedName name="solver_scl" localSheetId="0">2</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="4">2</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="5">2</definedName>
     <definedName name="solver_sho" localSheetId="0">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="4">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5">2</definedName>
     <definedName name="solver_ssz" localSheetId="0">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="4">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5">100</definedName>
     <definedName name="solver_tim" localSheetId="0">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="4">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="4">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0">1</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="4">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="5">1</definedName>
     <definedName name="solver_val" localSheetId="0">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="4">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5">0</definedName>
     <definedName name="solver_ver" localSheetId="0">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="4">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="5">3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -168,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="149">
   <si>
     <t xml:space="preserve">x0(0) </t>
   </si>
@@ -3708,2712 +3745,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:BA41"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1025" width="8.5703125"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" t="s">
-        <v>67</v>
-      </c>
-      <c r="P3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>69</v>
-      </c>
-      <c r="R3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T3" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" t="s">
-        <v>73</v>
-      </c>
-      <c r="V3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W3" t="s">
-        <v>75</v>
-      </c>
-      <c r="X3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>104</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>-0.18249194524500001</v>
-      </c>
-      <c r="C5">
-        <v>-0.04</v>
-      </c>
-      <c r="D5">
-        <v>-0.04</v>
-      </c>
-      <c r="E5">
-        <v>-0.04</v>
-      </c>
-      <c r="F5">
-        <v>-0.04</v>
-      </c>
-      <c r="G5">
-        <v>-0.12690912569999999</v>
-      </c>
-      <c r="H5">
-        <v>-0.04</v>
-      </c>
-      <c r="I5">
-        <v>-0.04</v>
-      </c>
-      <c r="J5">
-        <v>-0.04</v>
-      </c>
-      <c r="K5">
-        <v>-0.04</v>
-      </c>
-      <c r="L5">
-        <v>-6.9444634716699996E-2</v>
-      </c>
-      <c r="M5">
-        <v>-0.04</v>
-      </c>
-      <c r="N5">
-        <v>-0.04</v>
-      </c>
-      <c r="O5">
-        <v>-0.04</v>
-      </c>
-      <c r="P5">
-        <v>-0.04</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>-0.22737274982299999</v>
-      </c>
-      <c r="S5">
-        <v>-0.04</v>
-      </c>
-      <c r="T5">
-        <v>-0.04</v>
-      </c>
-      <c r="U5">
-        <v>-0.04</v>
-      </c>
-      <c r="V5">
-        <v>-0.04</v>
-      </c>
-      <c r="W5">
-        <v>-0.186746885483</v>
-      </c>
-      <c r="X5">
-        <v>-0.04</v>
-      </c>
-      <c r="Y5">
-        <v>-0.04</v>
-      </c>
-      <c r="Z5">
-        <v>-0.04</v>
-      </c>
-      <c r="AA5">
-        <v>-0.04</v>
-      </c>
-      <c r="AB5">
-        <v>-0.22506419235899999</v>
-      </c>
-      <c r="AC5">
-        <v>-0.04</v>
-      </c>
-      <c r="AD5">
-        <v>-0.04</v>
-      </c>
-      <c r="AE5">
-        <v>-0.04</v>
-      </c>
-      <c r="AF5">
-        <v>-0.04</v>
-      </c>
-      <c r="AG5">
-        <v>-1</v>
-      </c>
-      <c r="AH5">
-        <v>-0.27377345568400002</v>
-      </c>
-      <c r="AI5">
-        <v>-0.04</v>
-      </c>
-      <c r="AJ5">
-        <v>-0.04</v>
-      </c>
-      <c r="AK5">
-        <v>-0.04</v>
-      </c>
-      <c r="AL5">
-        <v>-0.04</v>
-      </c>
-      <c r="AM5">
-        <v>-0.245490715917</v>
-      </c>
-      <c r="AN5">
-        <v>-0.04</v>
-      </c>
-      <c r="AO5">
-        <v>-0.04</v>
-      </c>
-      <c r="AP5">
-        <v>-0.04</v>
-      </c>
-      <c r="AQ5">
-        <v>-0.04</v>
-      </c>
-      <c r="AR5">
-        <v>-0.28759361316900001</v>
-      </c>
-      <c r="AS5">
-        <v>-0.04</v>
-      </c>
-      <c r="AT5">
-        <v>-0.04</v>
-      </c>
-      <c r="AU5">
-        <v>-0.04</v>
-      </c>
-      <c r="AV5">
-        <v>-0.04</v>
-      </c>
-      <c r="AW5">
-        <v>-0.29998851655999997</v>
-      </c>
-      <c r="AX5">
-        <v>-0.04</v>
-      </c>
-      <c r="AY5">
-        <v>-0.04</v>
-      </c>
-      <c r="AZ5">
-        <v>-0.04</v>
-      </c>
-      <c r="BA5">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U7" t="s">
-        <v>19</v>
-      </c>
-      <c r="V7" t="s">
-        <v>20</v>
-      </c>
-      <c r="W7" t="s">
-        <v>21</v>
-      </c>
-      <c r="X7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>1.5029380364232241E-4</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1.5029380364231141E-4</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1.502938036424156E-4</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1.0016388807765695</v>
-      </c>
-      <c r="R9">
-        <v>1.5029380364251182E-4</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>1.5029380364249526E-4</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>1.5029380364221763E-4</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>1.6699311515824749E-4</v>
-      </c>
-      <c r="AH9">
-        <v>1.0001502938034941</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>1.5029380364246545E-4</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>1.502938036424796E-4</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>1.5029380364243777E-4</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0.99993598239600001</v>
-      </c>
-      <c r="C11">
-        <v>0.1</v>
-      </c>
-      <c r="D11">
-        <v>0.9</v>
-      </c>
-      <c r="E11">
-        <v>0.1</v>
-      </c>
-      <c r="F11">
-        <v>0.9</v>
-      </c>
-      <c r="G11" s="1">
-        <v>-3.5956175291999997E-5</v>
-      </c>
-      <c r="H11">
-        <v>-0.1</v>
-      </c>
-      <c r="I11">
-        <v>-0.1</v>
-      </c>
-      <c r="J11">
-        <v>-0.8</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-1.8304319336999999E-5</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
-        <v>-9.6621262696999999E-5</v>
-      </c>
-      <c r="S11">
-        <v>-0.8</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>-0.1</v>
-      </c>
-      <c r="V11">
-        <v>-0.1</v>
-      </c>
-      <c r="W11" s="1">
-        <v>-7.0623653806999999E-5</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>-1.09747081177E-4</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>-1.5012621614799999E-4</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>-1.2849480200599999E-4</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>-1.8971074391099999E-4</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>-2.5146403470999997E-4</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-6.4017604217999995E-5</v>
-      </c>
-      <c r="C12">
-        <v>-0.1</v>
-      </c>
-      <c r="D12">
-        <v>-0.1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>-0.8</v>
-      </c>
-      <c r="G12">
-        <v>0.99996404382500004</v>
-      </c>
-      <c r="H12">
-        <v>0.2</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0.9</v>
-      </c>
-      <c r="K12">
-        <v>0.9</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-1.8304319336999999E-5</v>
-      </c>
-      <c r="M12">
-        <v>-0.1</v>
-      </c>
-      <c r="N12">
-        <v>-0.1</v>
-      </c>
-      <c r="O12">
-        <v>-0.8</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <v>-9.6621262696999999E-5</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12" s="1">
-        <v>-7.0623653806999999E-5</v>
-      </c>
-      <c r="X12">
-        <v>-0.8</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>-0.1</v>
-      </c>
-      <c r="AA12">
-        <v>-0.1</v>
-      </c>
-      <c r="AB12">
-        <v>-1.09747081177E-4</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>-1.5012621614799999E-4</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>-1.2849480200599999E-4</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>-1.8971074391099999E-4</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>-2.5146403470999997E-4</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1">
-        <v>-6.4017604217999995E-5</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>-3.5956175291999997E-5</v>
-      </c>
-      <c r="H13">
-        <v>-0.1</v>
-      </c>
-      <c r="I13">
-        <v>-0.1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>-0.8</v>
-      </c>
-      <c r="L13">
-        <v>0.99998169568100004</v>
-      </c>
-      <c r="M13">
-        <v>0.2</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0.9</v>
-      </c>
-      <c r="P13">
-        <v>0.9</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
-        <v>-9.6621262696999999E-5</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13" s="1">
-        <v>-7.0623653806999999E-5</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>-1.09747081177E-4</v>
-      </c>
-      <c r="AC13">
-        <v>-0.8</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>-0.1</v>
-      </c>
-      <c r="AF13">
-        <v>-0.1</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>-1.5012621614799999E-4</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>-1.2849480200599999E-4</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>-1.8971074391099999E-4</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>-2.5146403470999997E-4</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>-1.00006502162</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>-1.00003648644</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>-1.00001859484</v>
-      </c>
-      <c r="M14">
-        <v>-0.1</v>
-      </c>
-      <c r="N14">
-        <v>-0.1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>-0.8</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>-1.00009806025</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>-1.0000717457899999</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>-1.0001113452499999</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>-1.0001524719199999</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>-1.0001303722199999</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>-1.00019271475</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>-0.88914407064199996</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1">
-        <v>-6.4017604217999995E-5</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>-0.8</v>
-      </c>
-      <c r="E15">
-        <v>-0.1</v>
-      </c>
-      <c r="F15">
-        <v>-0.1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>-3.5956175291999997E-5</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>-1.8304319336999999E-5</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0.99990337873699997</v>
-      </c>
-      <c r="S15">
-        <v>0.9</v>
-      </c>
-      <c r="T15">
-        <v>0.9</v>
-      </c>
-      <c r="U15">
-        <v>0.2</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15" s="1">
-        <v>-7.0623653806999999E-5</v>
-      </c>
-      <c r="X15">
-        <v>-0.1</v>
-      </c>
-      <c r="Y15">
-        <v>-0.1</v>
-      </c>
-      <c r="Z15">
-        <v>-0.8</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>-1.09747081177E-4</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>-1.5012621614799999E-4</v>
-      </c>
-      <c r="AI15">
-        <v>-0.8</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>-0.1</v>
-      </c>
-      <c r="AL15">
-        <v>-0.1</v>
-      </c>
-      <c r="AM15">
-        <v>-1.2849480200599999E-4</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>-1.8971074391099999E-4</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
-      <c r="AW15">
-        <v>-2.5146403470999997E-4</v>
-      </c>
-      <c r="AX15">
-        <v>0</v>
-      </c>
-      <c r="AY15">
-        <v>0</v>
-      </c>
-      <c r="AZ15">
-        <v>0</v>
-      </c>
-      <c r="BA15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1">
-        <v>-6.4017604217999995E-5</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>-3.5956175291999997E-5</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>-0.8</v>
-      </c>
-      <c r="J16">
-        <v>-0.1</v>
-      </c>
-      <c r="K16">
-        <v>-0.1</v>
-      </c>
-      <c r="L16" s="1">
-        <v>-1.8304319336999999E-5</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
-        <v>-9.6621262696999999E-5</v>
-      </c>
-      <c r="S16">
-        <v>-0.1</v>
-      </c>
-      <c r="T16">
-        <v>-0.1</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>-0.8</v>
-      </c>
-      <c r="W16">
-        <v>0.99992937634599999</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AA16">
-        <v>1</v>
-      </c>
-      <c r="AB16">
-        <v>-1.09747081177E-4</v>
-      </c>
-      <c r="AC16">
-        <v>-0.1</v>
-      </c>
-      <c r="AD16">
-        <v>-0.1</v>
-      </c>
-      <c r="AE16">
-        <v>-0.8</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>-1.5012621614799999E-4</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>-1.2849480200599999E-4</v>
-      </c>
-      <c r="AN16">
-        <v>-0.8</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>-0.1</v>
-      </c>
-      <c r="AQ16">
-        <v>-0.1</v>
-      </c>
-      <c r="AR16">
-        <v>-1.8971074391099999E-4</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16">
-        <v>-2.5146403470999997E-4</v>
-      </c>
-      <c r="AX16">
-        <v>0</v>
-      </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
-      <c r="AZ16">
-        <v>0</v>
-      </c>
-      <c r="BA16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1">
-        <v>-6.4017604217999995E-5</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>-3.5956175291999997E-5</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>-1.8304319336999999E-5</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>-0.8</v>
-      </c>
-      <c r="O17">
-        <v>-0.1</v>
-      </c>
-      <c r="P17">
-        <v>-0.1</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>-9.6621262696999999E-5</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17" s="1">
-        <v>-7.0623653806999999E-5</v>
-      </c>
-      <c r="X17">
-        <v>-0.1</v>
-      </c>
-      <c r="Y17">
-        <v>-0.1</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>-0.8</v>
-      </c>
-      <c r="AB17">
-        <v>0.99989025291900002</v>
-      </c>
-      <c r="AC17">
-        <v>1</v>
-      </c>
-      <c r="AD17">
-        <v>1</v>
-      </c>
-      <c r="AE17">
-        <v>1</v>
-      </c>
-      <c r="AF17">
-        <v>1</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>-1.5012621614799999E-4</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>-1.2849480200599999E-4</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>-1.8971074391099999E-4</v>
-      </c>
-      <c r="AS17">
-        <v>-0.8</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>-0.1</v>
-      </c>
-      <c r="AV17">
-        <v>-0.1</v>
-      </c>
-      <c r="AW17">
-        <v>-2.5146403470999997E-4</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1">
-        <v>-6.4017604217999995E-5</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>-3.5956175291999997E-5</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-1.8304319336999999E-5</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1">
-        <v>-9.6621262696999999E-5</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18" s="1">
-        <v>-7.0623653806999999E-5</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>-1.09747081177E-4</v>
-      </c>
-      <c r="AC18">
-        <v>-0.1</v>
-      </c>
-      <c r="AD18">
-        <v>-0.1</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>-0.8</v>
-      </c>
-      <c r="AG18">
-        <v>1</v>
-      </c>
-      <c r="AH18">
-        <v>-1.5012621614799999E-4</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>-1.2849480200599999E-4</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>-1.8971074391099999E-4</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
-      <c r="AW18">
-        <v>-0.111362575146</v>
-      </c>
-      <c r="AX18">
-        <v>-0.8</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18">
-        <v>-0.1</v>
-      </c>
-      <c r="BA18">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>8</v>
-      </c>
-      <c r="B19" s="1">
-        <v>-6.4017604217999995E-5</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>-3.5956175291999997E-5</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>-1.8304319336999999E-5</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
-        <v>-9.6621262696999999E-5</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>-0.8</v>
-      </c>
-      <c r="U19">
-        <v>-0.1</v>
-      </c>
-      <c r="V19">
-        <v>-0.1</v>
-      </c>
-      <c r="W19" s="1">
-        <v>-7.0623653806999999E-5</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>-1.09747081177E-4</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0.99984987378400003</v>
-      </c>
-      <c r="AI19">
-        <v>0.9</v>
-      </c>
-      <c r="AJ19">
-        <v>0.1</v>
-      </c>
-      <c r="AK19">
-        <v>0.1</v>
-      </c>
-      <c r="AL19">
-        <v>0.9</v>
-      </c>
-      <c r="AM19">
-        <v>-1.2849480200599999E-4</v>
-      </c>
-      <c r="AN19">
-        <v>-0.1</v>
-      </c>
-      <c r="AO19">
-        <v>-0.1</v>
-      </c>
-      <c r="AP19">
-        <v>-0.8</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>-1.8971074391099999E-4</v>
-      </c>
-      <c r="AS19">
-        <v>0</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>0</v>
-      </c>
-      <c r="AW19">
-        <v>-2.5146403470999997E-4</v>
-      </c>
-      <c r="AX19">
-        <v>0</v>
-      </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19">
-        <v>0</v>
-      </c>
-      <c r="BA19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1">
-        <v>-6.4017604217999995E-5</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>-3.5956175291999997E-5</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>-1.8304319336999999E-5</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1">
-        <v>-9.6621262696999999E-5</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20" s="1">
-        <v>-7.0623653806999999E-5</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>-0.8</v>
-      </c>
-      <c r="Z20">
-        <v>-0.1</v>
-      </c>
-      <c r="AA20">
-        <v>-0.1</v>
-      </c>
-      <c r="AB20">
-        <v>-1.09747081177E-4</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>-1.5012621614799999E-4</v>
-      </c>
-      <c r="AI20">
-        <v>-0.1</v>
-      </c>
-      <c r="AJ20">
-        <v>-0.1</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>-0.8</v>
-      </c>
-      <c r="AM20">
-        <v>0.99987150519800005</v>
-      </c>
-      <c r="AN20">
-        <v>1</v>
-      </c>
-      <c r="AO20">
-        <v>0.2</v>
-      </c>
-      <c r="AP20">
-        <v>0.9</v>
-      </c>
-      <c r="AQ20">
-        <v>0.9</v>
-      </c>
-      <c r="AR20">
-        <v>-1.8971074391099999E-4</v>
-      </c>
-      <c r="AS20">
-        <v>-0.1</v>
-      </c>
-      <c r="AT20">
-        <v>-0.1</v>
-      </c>
-      <c r="AU20">
-        <v>-0.8</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
-      </c>
-      <c r="AW20">
-        <v>-2.5146403470999997E-4</v>
-      </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
-      <c r="AY20">
-        <v>0</v>
-      </c>
-      <c r="AZ20">
-        <v>0</v>
-      </c>
-      <c r="BA20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1">
-        <v>-6.4017604217999995E-5</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>-3.5956175291999997E-5</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>-1.8304319336999999E-5</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1">
-        <v>-9.6621262696999999E-5</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21" s="1">
-        <v>-7.0623653806999999E-5</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>-1.09747081177E-4</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>-0.8</v>
-      </c>
-      <c r="AE21">
-        <v>-0.1</v>
-      </c>
-      <c r="AF21">
-        <v>-0.1</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>-1.5012621614799999E-4</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
-        <v>-1.2849480200599999E-4</v>
-      </c>
-      <c r="AN21">
-        <v>-0.1</v>
-      </c>
-      <c r="AO21">
-        <v>-0.1</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>-0.8</v>
-      </c>
-      <c r="AR21">
-        <v>0.99981028925600002</v>
-      </c>
-      <c r="AS21">
-        <v>1</v>
-      </c>
-      <c r="AT21">
-        <v>0.2</v>
-      </c>
-      <c r="AU21">
-        <v>0.9</v>
-      </c>
-      <c r="AV21">
-        <v>0.9</v>
-      </c>
-      <c r="AW21">
-        <v>-2.5146403470999997E-4</v>
-      </c>
-      <c r="AX21">
-        <v>-0.1</v>
-      </c>
-      <c r="AY21">
-        <v>-0.1</v>
-      </c>
-      <c r="AZ21">
-        <v>-0.8</v>
-      </c>
-      <c r="BA21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>11</v>
-      </c>
-      <c r="B22" s="1">
-        <v>-6.4017604217999995E-5</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>-3.5956175291999997E-5</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <v>-1.8304319336999999E-5</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1">
-        <v>-9.6621262696999999E-5</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22" s="1">
-        <v>-7.0623653806999999E-5</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>-1.09747081177E-4</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>-1.5012621614799999E-4</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>-1.2849480200599999E-4</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>-1.8971074391099999E-4</v>
-      </c>
-      <c r="AS22">
-        <v>-0.1</v>
-      </c>
-      <c r="AT22">
-        <v>-0.1</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-      <c r="AV22">
-        <v>-0.8</v>
-      </c>
-      <c r="AW22">
-        <v>0.99974853596500002</v>
-      </c>
-      <c r="AX22">
-        <v>0.9</v>
-      </c>
-      <c r="AY22">
-        <v>0.1</v>
-      </c>
-      <c r="AZ22">
-        <v>0.9</v>
-      </c>
-      <c r="BA22">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" t="s">
-        <v>107</v>
-      </c>
-      <c r="J29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="C30" s="1">
-        <f>SUMPRODUCT(B9:BA9, B11:BA11)</f>
-        <v>-3.8980952541010433E-17</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <f>SUMPRODUCT(B5:BA5, B9:BA9)</f>
-        <v>0.72737907630599341</v>
-      </c>
-    </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="C31" s="1">
-        <f>SUMPRODUCT(B9:BA9, B12:BA12)</f>
-        <v>-3.8872532323761883E-17</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="C32" s="1">
-        <f>SUMPRODUCT(B9:BA9, B13:BA13)</f>
-        <v>7.2095560030129496E-17</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C33" s="1">
-        <f>SUMPRODUCT(B9:BA9, B14:BA14)</f>
-        <v>4.8000340681364495E-16</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C34" s="1">
-        <f>SUMPRODUCT(B9:BA9, B15:BA15)</f>
-        <v>7.2122665084441633E-17</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C35" s="1">
-        <f>SUMPRODUCT(B9:BA9, B16:BA16)</f>
-        <v>7.2068454975817358E-17</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C36" s="1">
-        <f>SUMPRODUCT(B9:BA9, B17:BA17)</f>
-        <v>-1.4992193984058967E-16</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C37" s="1">
-        <f>SUMPRODUCT(B9:BA9, B18:BA18)</f>
-        <v>1.3552527156068805E-20</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C38" s="1">
-        <f>SUMPRODUCT(B9:BA9, B19:BA19)</f>
-        <v>0.99999999999999967</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C39" s="1">
-        <f>SUMPRODUCT(B9:BA9, B20:BA20)</f>
-        <v>7.2203239093549199E-17</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C40" s="1">
-        <f>SUMPRODUCT(B9:BA9, B21:BA21)</f>
-        <v>7.205944201586298E-17</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C41" s="1">
-        <f>SUMPRODUCT(B9:BA9, B22:BA22)</f>
-        <v>2.7105054312137611E-20</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI159"/>
   <sheetViews>
     <sheetView topLeftCell="AH16" zoomScaleNormal="100" workbookViewId="0">
@@ -25878,12 +23209,5636 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:BC41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V3" t="s">
+        <v>73</v>
+      </c>
+      <c r="W3" t="s">
+        <v>74</v>
+      </c>
+      <c r="X3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>-0.100396296136</v>
+      </c>
+      <c r="C5">
+        <v>-0.04</v>
+      </c>
+      <c r="D5">
+        <v>-0.04</v>
+      </c>
+      <c r="E5">
+        <v>-0.04</v>
+      </c>
+      <c r="F5">
+        <v>-0.04</v>
+      </c>
+      <c r="G5">
+        <v>-8.1423072898899995E-2</v>
+      </c>
+      <c r="H5">
+        <v>-0.04</v>
+      </c>
+      <c r="I5">
+        <v>-0.04</v>
+      </c>
+      <c r="J5">
+        <v>-0.04</v>
+      </c>
+      <c r="K5">
+        <v>-0.04</v>
+      </c>
+      <c r="L5">
+        <v>-5.11742377135E-2</v>
+      </c>
+      <c r="M5">
+        <v>-0.04</v>
+      </c>
+      <c r="N5">
+        <v>-0.04</v>
+      </c>
+      <c r="O5">
+        <v>-0.04</v>
+      </c>
+      <c r="P5">
+        <v>-0.04</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>-0.111059625845</v>
+      </c>
+      <c r="T5">
+        <v>-0.04</v>
+      </c>
+      <c r="U5">
+        <v>-0.04</v>
+      </c>
+      <c r="V5">
+        <v>-0.04</v>
+      </c>
+      <c r="W5">
+        <v>-0.04</v>
+      </c>
+      <c r="X5">
+        <v>-0.10096104814200001</v>
+      </c>
+      <c r="Y5">
+        <v>-0.04</v>
+      </c>
+      <c r="Z5">
+        <v>-0.04</v>
+      </c>
+      <c r="AA5">
+        <v>-0.04</v>
+      </c>
+      <c r="AB5">
+        <v>-0.04</v>
+      </c>
+      <c r="AC5">
+        <v>-0.108468156095</v>
+      </c>
+      <c r="AD5">
+        <v>-0.04</v>
+      </c>
+      <c r="AE5">
+        <v>-0.04</v>
+      </c>
+      <c r="AF5">
+        <v>-0.04</v>
+      </c>
+      <c r="AG5">
+        <v>-0.04</v>
+      </c>
+      <c r="AH5">
+        <v>-1</v>
+      </c>
+      <c r="AI5">
+        <v>-1</v>
+      </c>
+      <c r="AJ5">
+        <v>-0.118397376001</v>
+      </c>
+      <c r="AK5">
+        <v>-0.04</v>
+      </c>
+      <c r="AL5">
+        <v>-0.04</v>
+      </c>
+      <c r="AM5">
+        <v>-0.04</v>
+      </c>
+      <c r="AN5">
+        <v>-0.04</v>
+      </c>
+      <c r="AO5">
+        <v>-0.113173049059</v>
+      </c>
+      <c r="AP5">
+        <v>-0.04</v>
+      </c>
+      <c r="AQ5">
+        <v>-0.04</v>
+      </c>
+      <c r="AR5">
+        <v>-0.04</v>
+      </c>
+      <c r="AS5">
+        <v>-0.04</v>
+      </c>
+      <c r="AT5">
+        <v>-0.119314111833</v>
+      </c>
+      <c r="AU5">
+        <v>-0.04</v>
+      </c>
+      <c r="AV5">
+        <v>-0.04</v>
+      </c>
+      <c r="AW5">
+        <v>-0.04</v>
+      </c>
+      <c r="AX5">
+        <v>-0.04</v>
+      </c>
+      <c r="AY5">
+        <v>-0.114845359738</v>
+      </c>
+      <c r="AZ5">
+        <v>-0.04</v>
+      </c>
+      <c r="BA5">
+        <v>-0.04</v>
+      </c>
+      <c r="BB5">
+        <v>-0.04</v>
+      </c>
+      <c r="BC5">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.37</v>
+      </c>
+      <c r="D9">
+        <v>0.93</v>
+      </c>
+      <c r="E9">
+        <v>0.37</v>
+      </c>
+      <c r="F9">
+        <v>0.93</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="I9">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="J9">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="W9">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="D10">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.44</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.93</v>
+      </c>
+      <c r="K10">
+        <v>0.93</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="N10">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="O10">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AB10">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="I11">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.44</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0.93</v>
+      </c>
+      <c r="P11">
+        <v>0.93</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AG11">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>-0.24698765415599999</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>-0.38930451399900001</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>-0.61618173511100005</v>
+      </c>
+      <c r="M12">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="N12">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="Q12">
+        <v>0.3</v>
+      </c>
+      <c r="R12">
+        <v>0.3</v>
+      </c>
+      <c r="S12">
+        <v>-0.16699246699699999</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>-0.24274783229300001</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>-0.18642040329099999</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>-0.11192561542</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>-0.15112200156899999</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>-0.10502519740000001</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>-6.3234073765499998E-2</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="E13">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F13">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0.93</v>
+      </c>
+      <c r="U13">
+        <v>0.93</v>
+      </c>
+      <c r="V13">
+        <v>0.44</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="Z13">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AA13">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AN13">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="J14">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="K14">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="U14">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE14">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AF14">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AS14">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="O15">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="P15">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="Z15">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AX15">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE16">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="AH16">
+        <v>0.3</v>
+      </c>
+      <c r="AI16">
+        <v>0.3</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>-7.5267009999999995E-2</v>
+      </c>
+      <c r="AZ16">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="BC16">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="V17">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="W17">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>0.93</v>
+      </c>
+      <c r="AL17">
+        <v>0.37</v>
+      </c>
+      <c r="AM17">
+        <v>0.37</v>
+      </c>
+      <c r="AN17">
+        <v>0.93</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AQ17">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AR17">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="AA18">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AB18">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AL18">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>0.44</v>
+      </c>
+      <c r="AR18">
+        <v>0.93</v>
+      </c>
+      <c r="AS18">
+        <v>0.93</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AV18">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AW18">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="AF19">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AG19">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AQ19">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="AT19">
+        <v>1</v>
+      </c>
+      <c r="AU19">
+        <v>1</v>
+      </c>
+      <c r="AV19">
+        <v>0.44</v>
+      </c>
+      <c r="AW19">
+        <v>0.93</v>
+      </c>
+      <c r="AX19">
+        <v>0.93</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="BA19">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="BB19">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AV20">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="AY20">
+        <v>1</v>
+      </c>
+      <c r="AZ20">
+        <v>0.93</v>
+      </c>
+      <c r="BA20">
+        <v>0.37</v>
+      </c>
+      <c r="BB20">
+        <v>0.93</v>
+      </c>
+      <c r="BC20">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.4160268555609456</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.31984662318487506</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.20809495273235482</v>
+      </c>
+      <c r="Q22">
+        <v>0.38844391176706194</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0.69090174227085632</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0.11514700079965061</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>2.5739637602785505E-2</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>6.1035359871948061E-3</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1.0809936613690259</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>7.6058643902775239E-2</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>5.5583943849021079E-3</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>4.1837377090662379E-4</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="C30" s="1">
+        <f>SUMPRODUCT(B9:BC9, B22:BC22)</f>
+        <v>-1.6653345369377348E-16</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f>SUMPRODUCT(B5:BC5, B22:BC22)</f>
+        <v>0.26478894035670397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="C31" s="1">
+        <f>SUMPRODUCT(B10:BC10, B22:BC22)</f>
+        <v>-9.7144514654701197E-17</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="C32" s="1">
+        <f>SUMPRODUCT(B11:BC11, B22:BC22)</f>
+        <v>3.4694469519536142E-17</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C33" s="1">
+        <f>SUMPRODUCT(B12:BC12, B22:BC22)</f>
+        <v>-1.2490009027033011E-16</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C34" s="1">
+        <f>SUMPRODUCT(B13:BC13, B22:BC22)</f>
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C35" s="1">
+        <f>SUMPRODUCT(B14:BC14, B22:BC22)</f>
+        <v>2.7755575615628914E-16</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C36" s="1">
+        <f>SUMPRODUCT(B15:BC15, B22:BC22)</f>
+        <v>-5.6812193838240432E-17</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="1">
+        <f>SUMPRODUCT(B16:BC16, B22:BC22)</f>
+        <v>-7.4606661994158774E-18</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C38" s="1">
+        <f>SUMPRODUCT(B17:BC17,B22:BC22)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C39" s="1">
+        <f>SUMPRODUCT(B18:BC18, B22:BC22)</f>
+        <v>2.747910406164511E-16</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C40" s="1">
+        <f>SUMPRODUCT(B19:BC19, B22:BC22)</f>
+        <v>1.3113425276212176E-16</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C41" s="1">
+        <f>SUMPRODUCT(B20:BC20,B22:BC22)</f>
+        <v>1.2576745200831851E-17</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:BC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM14" sqref="AM14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V3" t="s">
+        <v>73</v>
+      </c>
+      <c r="W3" t="s">
+        <v>74</v>
+      </c>
+      <c r="X3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>-0.14553937995399999</v>
+      </c>
+      <c r="C5">
+        <v>-0.04</v>
+      </c>
+      <c r="D5">
+        <v>-0.04</v>
+      </c>
+      <c r="E5">
+        <v>-0.04</v>
+      </c>
+      <c r="F5">
+        <v>-0.04</v>
+      </c>
+      <c r="G5">
+        <v>-0.10667810779299999</v>
+      </c>
+      <c r="H5">
+        <v>-0.04</v>
+      </c>
+      <c r="I5">
+        <v>-0.04</v>
+      </c>
+      <c r="J5">
+        <v>-0.04</v>
+      </c>
+      <c r="K5">
+        <v>-0.04</v>
+      </c>
+      <c r="L5">
+        <v>-6.0803800362100001E-2</v>
+      </c>
+      <c r="M5">
+        <v>-0.04</v>
+      </c>
+      <c r="N5">
+        <v>-0.04</v>
+      </c>
+      <c r="O5">
+        <v>-0.04</v>
+      </c>
+      <c r="P5">
+        <v>-0.04</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>-0.173719415471</v>
+      </c>
+      <c r="T5">
+        <v>-0.04</v>
+      </c>
+      <c r="U5">
+        <v>-0.04</v>
+      </c>
+      <c r="V5">
+        <v>-0.04</v>
+      </c>
+      <c r="W5">
+        <v>-0.04</v>
+      </c>
+      <c r="X5">
+        <v>-0.14777268440399999</v>
+      </c>
+      <c r="Y5">
+        <v>-0.04</v>
+      </c>
+      <c r="Z5">
+        <v>-0.04</v>
+      </c>
+      <c r="AA5">
+        <v>-0.04</v>
+      </c>
+      <c r="AB5">
+        <v>-0.04</v>
+      </c>
+      <c r="AC5">
+        <v>-0.17035637348300001</v>
+      </c>
+      <c r="AD5">
+        <v>-0.04</v>
+      </c>
+      <c r="AE5">
+        <v>-0.04</v>
+      </c>
+      <c r="AF5">
+        <v>-0.04</v>
+      </c>
+      <c r="AG5">
+        <v>-0.04</v>
+      </c>
+      <c r="AH5">
+        <v>-1</v>
+      </c>
+      <c r="AI5">
+        <v>-1</v>
+      </c>
+      <c r="AJ5">
+        <v>-0.199481591524</v>
+      </c>
+      <c r="AK5">
+        <v>-0.04</v>
+      </c>
+      <c r="AL5">
+        <v>-0.04</v>
+      </c>
+      <c r="AM5">
+        <v>-0.04</v>
+      </c>
+      <c r="AN5">
+        <v>-0.04</v>
+      </c>
+      <c r="AO5">
+        <v>-0.18283674851699999</v>
+      </c>
+      <c r="AP5">
+        <v>-0.04</v>
+      </c>
+      <c r="AQ5">
+        <v>-0.04</v>
+      </c>
+      <c r="AR5">
+        <v>-0.04</v>
+      </c>
+      <c r="AS5">
+        <v>-0.04</v>
+      </c>
+      <c r="AT5">
+        <v>-0.20545951332699999</v>
+      </c>
+      <c r="AU5">
+        <v>-0.04</v>
+      </c>
+      <c r="AV5">
+        <v>-0.04</v>
+      </c>
+      <c r="AW5">
+        <v>-0.04</v>
+      </c>
+      <c r="AX5">
+        <v>-0.04</v>
+      </c>
+      <c r="AY5">
+        <v>-0.20650819431100001</v>
+      </c>
+      <c r="AZ5">
+        <v>-0.04</v>
+      </c>
+      <c r="BA5">
+        <v>-0.04</v>
+      </c>
+      <c r="BB5">
+        <v>-0.04</v>
+      </c>
+      <c r="BC5">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7" t="s">
+        <v>20</v>
+      </c>
+      <c r="X7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.19</v>
+      </c>
+      <c r="D9">
+        <v>0.91</v>
+      </c>
+      <c r="E9">
+        <v>0.19</v>
+      </c>
+      <c r="F9">
+        <v>0.91</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>-0.09</v>
+      </c>
+      <c r="I9">
+        <v>-0.09</v>
+      </c>
+      <c r="J9">
+        <v>-0.72</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>-0.72</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>-0.09</v>
+      </c>
+      <c r="W9">
+        <v>-0.09</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-0.09</v>
+      </c>
+      <c r="D10">
+        <v>-0.09</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>-0.72</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.91</v>
+      </c>
+      <c r="K10">
+        <v>0.91</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>-0.09</v>
+      </c>
+      <c r="N10">
+        <v>-0.09</v>
+      </c>
+      <c r="O10">
+        <v>-0.72</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>-0.72</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>-0.09</v>
+      </c>
+      <c r="AB10">
+        <v>-0.09</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>-0.09</v>
+      </c>
+      <c r="I11">
+        <v>-0.09</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>-0.72</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0.91</v>
+      </c>
+      <c r="P11">
+        <v>0.91</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>-0.72</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>-0.09</v>
+      </c>
+      <c r="AG11">
+        <v>-0.09</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>-0.63613078612700003</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>-0.73329307617899997</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>-0.84798456130199995</v>
+      </c>
+      <c r="M12">
+        <v>-0.09</v>
+      </c>
+      <c r="N12">
+        <v>-0.09</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>-0.72</v>
+      </c>
+      <c r="Q12">
+        <v>0.1</v>
+      </c>
+      <c r="R12">
+        <v>0.1</v>
+      </c>
+      <c r="S12">
+        <v>-0.56567014052200004</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>-0.630545378898</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>-0.57407349921100004</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>-0.50124733013599998</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>-0.54286648434499996</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>-0.486289677516</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>-0.38474690694300001</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-0.72</v>
+      </c>
+      <c r="E13">
+        <v>-0.09</v>
+      </c>
+      <c r="F13">
+        <v>-0.09</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0.91</v>
+      </c>
+      <c r="U13">
+        <v>0.91</v>
+      </c>
+      <c r="V13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>-0.09</v>
+      </c>
+      <c r="Z13">
+        <v>-0.09</v>
+      </c>
+      <c r="AA13">
+        <v>-0.72</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>-0.72</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>-0.09</v>
+      </c>
+      <c r="AN13">
+        <v>-0.09</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>-0.72</v>
+      </c>
+      <c r="J14">
+        <v>-0.09</v>
+      </c>
+      <c r="K14">
+        <v>-0.09</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>-0.09</v>
+      </c>
+      <c r="U14">
+        <v>-0.09</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>-0.72</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>-0.09</v>
+      </c>
+      <c r="AE14">
+        <v>-0.09</v>
+      </c>
+      <c r="AF14">
+        <v>-0.72</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>-0.72</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>-0.09</v>
+      </c>
+      <c r="AS14">
+        <v>-0.09</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>-0.72</v>
+      </c>
+      <c r="O15">
+        <v>-0.09</v>
+      </c>
+      <c r="P15">
+        <v>-0.09</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>-0.09</v>
+      </c>
+      <c r="Z15">
+        <v>-0.09</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>-0.72</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>-0.72</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>-0.09</v>
+      </c>
+      <c r="AX15">
+        <v>-0.09</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>-0.09</v>
+      </c>
+      <c r="AE16">
+        <v>-0.09</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>-0.72</v>
+      </c>
+      <c r="AH16">
+        <v>0.1</v>
+      </c>
+      <c r="AI16">
+        <v>0.1</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>-9.8894609999999994E-2</v>
+      </c>
+      <c r="AZ16">
+        <v>-0.72</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>-0.09</v>
+      </c>
+      <c r="BC16">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>-0.72</v>
+      </c>
+      <c r="V17">
+        <v>-0.09</v>
+      </c>
+      <c r="W17">
+        <v>-0.09</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>0.91</v>
+      </c>
+      <c r="AL17">
+        <v>0.19</v>
+      </c>
+      <c r="AM17">
+        <v>0.19</v>
+      </c>
+      <c r="AN17">
+        <v>0.91</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>-0.09</v>
+      </c>
+      <c r="AQ17">
+        <v>-0.09</v>
+      </c>
+      <c r="AR17">
+        <v>-0.72</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>-0.72</v>
+      </c>
+      <c r="AA18">
+        <v>-0.09</v>
+      </c>
+      <c r="AB18">
+        <v>-0.09</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>-0.09</v>
+      </c>
+      <c r="AL18">
+        <v>-0.09</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>-0.72</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AR18">
+        <v>0.91</v>
+      </c>
+      <c r="AS18">
+        <v>0.91</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>-0.09</v>
+      </c>
+      <c r="AV18">
+        <v>-0.09</v>
+      </c>
+      <c r="AW18">
+        <v>-0.72</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>-0.72</v>
+      </c>
+      <c r="AF19">
+        <v>-0.09</v>
+      </c>
+      <c r="AG19">
+        <v>-0.09</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>-0.09</v>
+      </c>
+      <c r="AQ19">
+        <v>-0.09</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>-0.72</v>
+      </c>
+      <c r="AT19">
+        <v>1</v>
+      </c>
+      <c r="AU19">
+        <v>1</v>
+      </c>
+      <c r="AV19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AW19">
+        <v>0.91</v>
+      </c>
+      <c r="AX19">
+        <v>0.91</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>-0.09</v>
+      </c>
+      <c r="BA19">
+        <v>-0.09</v>
+      </c>
+      <c r="BB19">
+        <v>-0.72</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>-0.09</v>
+      </c>
+      <c r="AV20">
+        <v>-0.09</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>-0.72</v>
+      </c>
+      <c r="AY20">
+        <v>1</v>
+      </c>
+      <c r="AZ20">
+        <v>0.91</v>
+      </c>
+      <c r="BA20">
+        <v>0.19</v>
+      </c>
+      <c r="BB20">
+        <v>0.91</v>
+      </c>
+      <c r="BC20">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.77355154140202331</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.80276008090919271</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.70831092065578849</v>
+      </c>
+      <c r="Q22">
+        <v>5.0998386287216722</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0.97768319816089155</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0.24104800530265208</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>9.2466221586316816E-2</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>8.4087940969588396E-2</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1.1088579876708209</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0.10067520867163067</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>9.7554420139689801E-3</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>9.6482393544748137E-4</v>
+      </c>
+      <c r="BC22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" t="s">
+        <v>107</v>
+      </c>
+      <c r="J29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="C30" s="1">
+        <f>SUMPRODUCT(B9:BC9, B22:BC22)</f>
+        <v>-6.6613381477509392E-16</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f>SUMPRODUCT(B5:BC5, B22:BC22)</f>
+        <v>4.8231077505397346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="C31" s="1">
+        <f>SUMPRODUCT(B10:BC10, B22:BC22)</f>
+        <v>-9.1593399531575415E-16</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="C32" s="1">
+        <f>SUMPRODUCT(B11:BC11, B22:BC22)</f>
+        <v>7.2164496600635175E-16</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C33" s="1">
+        <f>SUMPRODUCT(B12:BC12, B22:BC22)</f>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C34" s="1">
+        <f>SUMPRODUCT(B13:BC13, B22:BC22)</f>
+        <v>-5.5511151231257827E-16</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C35" s="1">
+        <f>SUMPRODUCT(B14:BC14, B22:BC22)</f>
+        <v>1.8873791418627661E-15</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C36" s="1">
+        <f>SUMPRODUCT(B15:BC15, B22:BC22)</f>
+        <v>-4.9179410543942481E-16</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="1">
+        <f>SUMPRODUCT(B16:BC16, B22:BC22)</f>
+        <v>5.3031038761697236E-17</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C38" s="1">
+        <f>SUMPRODUCT(B17:BC17,B22:BC22)</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C39" s="1">
+        <f>SUMPRODUCT(B18:BC18, B22:BC22)</f>
+        <v>-4.1709257575517356E-16</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C40" s="1">
+        <f>SUMPRODUCT(B19:BC19, B22:BC22)</f>
+        <v>3.3935527998796289E-17</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C41" s="1">
+        <f>SUMPRODUCT(B20:BC20,B22:BC22)</f>
+        <v>-1.0842021724855044E-19</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:BC41"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -28696,7 +31651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:BA39"/>
   <sheetViews>
